--- a/Input/Base.xlsx
+++ b/Input/Base.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCsito\Desktop\GrupLAC-Complete\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\GrupLAC-Complete\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40194F0-5E8A-4BEF-A40C-3DDA0AF1228E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>GrupLAC</t>
   </si>
@@ -57,12 +56,21 @@
   </si>
   <si>
     <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002066</t>
+  </si>
+  <si>
+    <t>COL0000001</t>
+  </si>
+  <si>
+    <t>Gruplac de prueba</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000019540</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,8 +141,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -161,7 +169,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -541,14 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
@@ -597,8 +605,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1032456871</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{3ADA87DC-9D30-48D0-9FA3-D85DC0DC621F}"/>
+  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Input/Base.xlsx
+++ b/Input/Base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,11 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +626,9 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Input/Base.xlsx
+++ b/Input/Base.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>GrupLAC</t>
   </si>
@@ -65,13 +65,25 @@
   </si>
   <si>
     <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000019540</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004188</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Grupo de prueba 2</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001785</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,6 +101,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -130,18 +150,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
@@ -551,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +613,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>448</v>
       </c>
       <c r="C2" t="s">
@@ -627,11 +650,45 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
+      <c r="B4">
+        <v>1231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3123102938</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3123102938</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Input/Base.xlsx
+++ b/Input/Base.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\GrupLAC-Complete\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCsito\Desktop\Ubuntu Shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD54E5C-3ABF-4E82-BB1E-83EB24F315A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="CORREO">#REF!</definedName>
     <definedName name="Nombre">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
   <si>
     <t>GrupLAC</t>
   </si>
@@ -58,32 +59,446 @@
     <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002066</t>
   </si>
   <si>
-    <t>COL0000001</t>
-  </si>
-  <si>
-    <t>Gruplac de prueba</t>
-  </si>
-  <si>
-    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000019540</t>
-  </si>
-  <si>
-    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004188</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>Grupo de prueba 2</t>
-  </si>
-  <si>
-    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001785</t>
+    <t>COL0014458</t>
+  </si>
+  <si>
+    <t>COL0059638</t>
+  </si>
+  <si>
+    <t>COL0025148</t>
+  </si>
+  <si>
+    <t>COL0034595</t>
+  </si>
+  <si>
+    <t>COL0029245</t>
+  </si>
+  <si>
+    <t>COL0058096</t>
+  </si>
+  <si>
+    <t>COL0154771</t>
+  </si>
+  <si>
+    <t>COL0061046</t>
+  </si>
+  <si>
+    <t>COL0026459</t>
+  </si>
+  <si>
+    <t>COL0009912</t>
+  </si>
+  <si>
+    <t>COL0009476</t>
+  </si>
+  <si>
+    <t>COL0065689</t>
+  </si>
+  <si>
+    <t>COL0148175</t>
+  </si>
+  <si>
+    <t>COL0011385</t>
+  </si>
+  <si>
+    <t>COL0029085</t>
+  </si>
+  <si>
+    <t>COL0050347</t>
+  </si>
+  <si>
+    <t>COL0083749</t>
+  </si>
+  <si>
+    <t>COL0010889</t>
+  </si>
+  <si>
+    <t>COL0002439</t>
+  </si>
+  <si>
+    <t>COL0007758</t>
+  </si>
+  <si>
+    <t>COL0011779</t>
+  </si>
+  <si>
+    <t>COL0147768</t>
+  </si>
+  <si>
+    <t>COL0065967</t>
+  </si>
+  <si>
+    <t>COL0070896</t>
+  </si>
+  <si>
+    <t>COL0120979</t>
+  </si>
+  <si>
+    <t>COL0005762</t>
+  </si>
+  <si>
+    <t>COL0039279</t>
+  </si>
+  <si>
+    <t>COL0119137</t>
+  </si>
+  <si>
+    <t>COL0022431</t>
+  </si>
+  <si>
+    <t>COL0022807</t>
+  </si>
+  <si>
+    <t>COL0049533</t>
+  </si>
+  <si>
+    <t>COL0148863</t>
+  </si>
+  <si>
+    <t>COL0024499</t>
+  </si>
+  <si>
+    <t>COL0046264</t>
+  </si>
+  <si>
+    <t>COL0032151</t>
+  </si>
+  <si>
+    <t>COL0044036</t>
+  </si>
+  <si>
+    <t>COL0058265</t>
+  </si>
+  <si>
+    <t>COL0055568</t>
+  </si>
+  <si>
+    <t>COL0105104</t>
+  </si>
+  <si>
+    <t>COL0075032</t>
+  </si>
+  <si>
+    <t>COL0161489</t>
+  </si>
+  <si>
+    <t>COL0110309</t>
+  </si>
+  <si>
+    <t>COL0066454</t>
+  </si>
+  <si>
+    <t>COL0010566</t>
+  </si>
+  <si>
+    <t>COL0021139</t>
+  </si>
+  <si>
+    <t>COL0069213</t>
+  </si>
+  <si>
+    <t>COL0000882</t>
+  </si>
+  <si>
+    <t>COL0059852</t>
+  </si>
+  <si>
+    <t>Programa De Investigacion Sobre Adquisicion Y Analisis De Señales Paas­-Un</t>
+  </si>
+  <si>
+    <t>Mecanismos De Desarrollo Limpio Y Gestión Energética</t>
+  </si>
+  <si>
+    <t>Laboratorio De Investigación En Sistemas Inteligentes - Lisi</t>
+  </si>
+  <si>
+    <t>Piga: Política, Información Y Gestión Ambiental</t>
+  </si>
+  <si>
+    <t>Complexus</t>
+  </si>
+  <si>
+    <t>Laboratorio De Biomiméticos: Grupo De Mecanobiología De Tejidos Y Órganos</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Tecnología E Innovación Para El Desarrollo Comunitario Gitidc</t>
+  </si>
+  <si>
+    <t>Grupo Poscosecha De Productos Agricolas</t>
+  </si>
+  <si>
+    <t>Control Inteligente De Sistemas</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Ingeniería De Recursos Hidrícos ­ Gireh</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Biomecánica / Universidad Nacional De Colombia Gibm­-Uncb</t>
+  </si>
+  <si>
+    <t>Griego - Grupo De Investigación En Gestión Y Organización</t>
+  </si>
+  <si>
+    <t>Ingeniería De Biosistemas</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Compatibilidad Electromagnética Emc­Un</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación Afis (Análisis De Fallas, Integridad Y Superficies)</t>
+  </si>
+  <si>
+    <t>Gnum ­ Grupo De Modelado Y Métodos Numericos En Ingeniería</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Materiales, Catálisis Y Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Procesos Químicos Y Bioquímicos</t>
+  </si>
+  <si>
+    <t>Ciencia Y Tecnología De Materiales</t>
+  </si>
+  <si>
+    <t>Grupo De Automatica De La Universidad Nacional - Gaunal</t>
+  </si>
+  <si>
+    <t>Grupo De Horticultura - Interfacultades: Agronomia</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Ingeniería En La Educación Stem+B</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Suelos Residuales Y Parcialmente Saturados</t>
+  </si>
+  <si>
+    <t>Sociedad, Economía Y Productividad ­ "Sepro"</t>
+  </si>
+  <si>
+    <t>Electrical Machines Y Drives, Emd</t>
+  </si>
+  <si>
+    <t>Grisec</t>
+  </si>
+  <si>
+    <t>Calidad Del Aire</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Corrosión, Tribologia Y Energía</t>
+  </si>
+  <si>
+    <t>Un-Robot­ Grupo De Plataformas Robóticas</t>
+  </si>
+  <si>
+    <t>Grupo De Investigacion En Protecciones Y Tierras ­ Gipyt</t>
+  </si>
+  <si>
+    <t>Modelamiento Y Control De Sistemas Biológicos</t>
+  </si>
+  <si>
+    <t>Inticolombia</t>
+  </si>
+  <si>
+    <t>Gidmaq</t>
+  </si>
+  <si>
+    <t>Agrospectiva</t>
+  </si>
+  <si>
+    <t>Ingenieria De La Salud</t>
+  </si>
+  <si>
+    <t>Productividad, Competitividad Y Calidad</t>
+  </si>
+  <si>
+    <t>Midas: Grupo De Investigación En Minería De Datos</t>
+  </si>
+  <si>
+    <t>Biomasa Y Optimización Térmica De Procesos ­ Biot</t>
+  </si>
+  <si>
+    <t>Innovación En Procesos De Manufactura E Ingeniería De Materiales (Ipmim)</t>
+  </si>
+  <si>
+    <t>Grupo De Ingeniería De Sistemas De Proceso</t>
+  </si>
+  <si>
+    <t>Tlön-Grupo De Investigación En Redes De Telecomunicaciones Dinámicas &amp; Lenguajes De Programación Distribuidos.</t>
+  </si>
+  <si>
+    <t>Grupo De Investigación En Electrónica De Alta Frecuencia Y Telecomunicaciones (Cmun)</t>
+  </si>
+  <si>
+    <t>Pcm Computational Applications</t>
+  </si>
+  <si>
+    <t>Grupo Interdisciplinario De Investigación Y Desarrollo En Gestión, Productividad Y Competitividad ­ Biogestión</t>
+  </si>
+  <si>
+    <t>Grupo De Trabajo En Nuevastecnologías De Diseño Y Manufactura-Automatización Dima Un</t>
+  </si>
+  <si>
+    <t>Alife: Grupo De Investigación En Vida Artificial</t>
+  </si>
+  <si>
+    <t>Tecnología Para La Educación Y La Innovación</t>
+  </si>
+  <si>
+    <t>Resiliencia Y Saneamiento Resa</t>
+  </si>
+  <si>
+    <t>Colectivo De Investigación En Ingeniería De Software ­ Colswe</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002600</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000003322</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000014982</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000420</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000440</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000442</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000724</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000733</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001031</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001481</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001585</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001714</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002089</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002203</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002791</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002914</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000003324</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000003803</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000003951</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004254</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004418</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004504</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000005692</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000006598</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000007660</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000008630</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000008706</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000010573</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000011128</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000012036</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000012226</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000015092</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001584</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000080</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000422</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000425</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000511</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000548</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001223</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000006180</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000007411</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000008200</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000008499</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000015081</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000016269</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000016352</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000016776</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000018097</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -113,6 +528,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -128,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,24 +570,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -193,7 +632,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -573,14 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
@@ -589,7 +1028,7 @@
     <col min="7" max="1026" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -609,84 +1048,851 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>448</v>
+        <v>1500</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>79650242</v>
+        <v>9522900</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>79580032</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>509</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2">
+        <v>52055373</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12105821</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>79452376</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>452</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>79756570</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>863</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>19216550</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>93376306</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>723</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10">
+        <v>19413375</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>447</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11">
+        <v>79113041</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>996</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12">
+        <v>79601784</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>769</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <v>19439517</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>19216550</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>680</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>79647908</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>901</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16">
+        <v>52176853</v>
+      </c>
+      <c r="F16" t="s">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="17" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1276</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17">
+        <v>52176126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <v>79133134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1038</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19">
+        <v>79594683</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>997</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>91068411</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1073</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21">
+        <v>19209186</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22">
+        <v>79365032</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1352</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23">
+        <v>79695545</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1339</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24">
+        <v>94432342</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>879</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25">
+        <v>11433028</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1450</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26">
+        <v>79647661</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1365</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27">
+        <v>52422560</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1485</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28">
+        <v>12240227</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1498</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29">
+        <v>98337913</v>
+      </c>
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2006</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30">
+        <v>19090408</v>
+      </c>
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>43667144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>665</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32">
+        <v>19372331</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>197</v>
+      </c>
+      <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33">
+        <v>19102012</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>387</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>19180721</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1488</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35">
+        <v>51921760</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>334276</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37">
+        <v>79295983</v>
+      </c>
+      <c r="F37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>377</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38">
+        <v>79300115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1992</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39">
+        <v>79515764</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40">
+        <v>7304244</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>236</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>80413250</v>
+      </c>
+      <c r="F41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>79647908</v>
+      </c>
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>409</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43">
+        <v>79436297</v>
+      </c>
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>251</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44">
+        <v>35498777</v>
+      </c>
+      <c r="F44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45">
+        <v>79518953</v>
+      </c>
+      <c r="F45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1332</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46">
+        <v>79413704</v>
+      </c>
+      <c r="F46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>2357</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47">
+        <v>80093506</v>
+      </c>
+      <c r="F47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>448</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>79650242</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>442</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49">
+        <v>5946402</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1080</v>
+      </c>
+      <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1032456871</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1231</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3123102938</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1231</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3123102938</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
+      <c r="D50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50">
+        <v>79357694</v>
+      </c>
+      <c r="F50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1913</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51">
+        <v>79365032</v>
+      </c>
+      <c r="F51" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{7507F2EB-F637-4E84-AFE2-0AB7339AB91C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
